--- a/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_2.xlsx
+++ b/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieuw\OneDrive\School - Radius\Barroc-IT_P5\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\Logboeken Pieter Jan Kolijn D231100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{67263980-C437-4720-9F3D-B4196FEA4276}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{8178DE1E-2B73-4818-A907-7E1CAEDDA318}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E94F7-D5AA-4DA8-8252-A9C6F9D05CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F3221131-D03D-448D-9AA0-38A26CEF15AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Maandag</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Datum: 06-09-2019</t>
+  </si>
+  <si>
+    <t>intervieuws uitwerken</t>
+  </si>
+  <si>
+    <t>overzicht krijgen aplicatie</t>
+  </si>
+  <si>
+    <t>Intervieuw + uitwerken</t>
+  </si>
+  <si>
+    <t>ziek</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -240,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D7CF45-536A-4F08-86C7-47AA33B86847}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,16 +587,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="7">
         <v>0.375</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E2" s="7">
         <f>D2-C2</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -596,14 +610,14 @@
       <c r="B3" s="8"/>
       <c r="C3" s="7">
         <f>D2</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E12" si="0">D3-C3</f>
-        <v>0</v>
+        <v>-0.51041666666666663</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="9"/>
@@ -791,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -800,7 +814,7 @@
       </c>
       <c r="H13" s="3">
         <f>D13-C2</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -860,16 +874,18 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="7">
         <v>0.375</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E18" s="7">
         <f>D18-C18</f>
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -881,14 +897,14 @@
       <c r="B19" s="5"/>
       <c r="C19" s="7">
         <f>D18</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ref="E19:E28" si="2">D19-C19</f>
-        <v>0</v>
+        <v>-0.375</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
@@ -1075,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1084,7 +1100,7 @@
       </c>
       <c r="H29" s="3">
         <f>D29-C18</f>
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5"/>
     </row>
@@ -1133,16 +1149,18 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C33" s="7">
-        <v>0.375</v>
+        <v>0.53125</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E33" s="7">
         <f>D33-C33</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1154,14 +1172,14 @@
       <c r="B34" s="5"/>
       <c r="C34" s="7">
         <f>D33</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" ref="E34:E43" si="4">D34-C34</f>
-        <v>0</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="9"/>
@@ -1348,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -1357,7 +1375,7 @@
       </c>
       <c r="H44" s="3">
         <f>D44-C33</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -1417,16 +1435,18 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C49" s="7">
         <v>0.375</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="E49" s="7">
         <f>D49-C49</f>
-        <v>-0.375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -1438,14 +1458,14 @@
       <c r="B50" s="5"/>
       <c r="C50" s="7">
         <f>D49</f>
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" ref="E50:E59" si="6">D50-C50</f>
-        <v>0</v>
+        <v>-0.4375</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="9"/>

--- a/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_2.xlsx
+++ b/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\Logboeken Pieter Jan Kolijn D231100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E94F7-D5AA-4DA8-8252-A9C6F9D05CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715CFAD1-8175-4EDC-9088-EE05FA378C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F3221131-D03D-448D-9AA0-38A26CEF15AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Maandag</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>ziek</t>
+  </si>
+  <si>
+    <t>plan van aanpak/overleg wireframes</t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D7CF45-536A-4F08-86C7-47AA33B86847}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,17 +1458,18 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C50" s="7">
-        <f>D49</f>
-        <v>0.4375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" ref="E50:E59" si="6">D50-C50</f>
-        <v>-0.4375</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="9"/>
@@ -1477,14 +1481,14 @@
       <c r="B51" s="5"/>
       <c r="C51" s="7">
         <f t="shared" ref="C51:C59" si="7">D50</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-0.51041666666666663</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -1652,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -1661,7 +1665,7 @@
       </c>
       <c r="H60" s="3">
         <f>D60-C49</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="I60" s="5"/>
     </row>
